--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/NEW_YORK_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/NEW_YORK_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1351"/>
+  <dimension ref="A1:D1345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C32">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C35">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C37">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C43">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C47">
@@ -1291,7 +1291,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C70">
@@ -1330,7 +1330,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C73">
@@ -1382,7 +1382,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C77">
@@ -1473,7 +1473,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C84">
@@ -1486,7 +1486,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C85">
@@ -1907,7 +1907,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C117">
@@ -1985,7 +1985,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2029,7 +2029,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C126">
@@ -2224,7 +2224,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2268,7 +2268,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C144">
@@ -2447,7 +2447,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C157">
@@ -2499,12 +2499,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C161">
@@ -2543,7 +2543,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C164">
@@ -2556,7 +2556,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C165">
@@ -2634,7 +2634,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C171">
@@ -2712,7 +2712,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C177">
@@ -2777,7 +2777,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C182">
@@ -2868,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C189">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C195">
@@ -2959,7 +2959,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C196">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C210">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C217">
@@ -3245,7 +3245,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C218">
@@ -3258,7 +3258,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>San José del Rincón</t>
+          <t>San José Del Rincón</t>
         </is>
       </c>
       <c r="C219">
@@ -3271,7 +3271,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C220">
@@ -3414,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C231">
@@ -3557,7 +3557,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C242">
@@ -3635,7 +3635,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C248">
@@ -3648,7 +3648,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C249">
@@ -3687,7 +3687,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C252">
@@ -3700,7 +3700,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C253">
@@ -3822,7 +3822,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C262">
@@ -3835,7 +3835,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C263">
@@ -4004,7 +4004,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C276">
@@ -4030,7 +4030,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C278">
@@ -4056,7 +4056,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C280">
@@ -4082,7 +4082,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C282">
@@ -4095,7 +4095,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C283">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C290">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C293">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C296">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C297">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C299">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C300">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C303">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C304">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Cochoapa el Grande</t>
+          <t>Cochoapa El Grande</t>
         </is>
       </c>
       <c r="C305">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C310">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C311">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C315">
@@ -4607,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C322">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C323">
@@ -4659,7 +4659,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C326">
@@ -4672,7 +4672,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>José Joaquín de Herrera</t>
+          <t>José Joaquín De Herrera</t>
         </is>
       </c>
       <c r="C327">
@@ -4698,7 +4698,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C329">
@@ -4776,7 +4776,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C335">
@@ -4893,7 +4893,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C344">
@@ -4932,7 +4932,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C347">
@@ -4958,7 +4958,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C349">
@@ -4997,7 +4997,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C352">
@@ -5010,7 +5010,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C353">
@@ -5036,7 +5036,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C355">
@@ -5101,7 +5101,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C360">
@@ -5184,7 +5184,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C366">
@@ -5262,7 +5262,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C372">
@@ -5327,7 +5327,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C377">
@@ -5405,7 +5405,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C383">
@@ -5457,7 +5457,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C387">
@@ -5561,7 +5561,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C395">
@@ -5574,7 +5574,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C396">
@@ -5587,7 +5587,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C397">
@@ -5600,7 +5600,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C398">
@@ -5626,7 +5626,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C400">
@@ -5639,7 +5639,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C401">
@@ -5652,7 +5652,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C402">
@@ -5717,7 +5717,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C407">
@@ -5730,7 +5730,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C408">
@@ -5769,7 +5769,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C411">
@@ -5795,7 +5795,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C413">
@@ -5808,7 +5808,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C414">
@@ -5834,7 +5834,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C416">
@@ -5912,7 +5912,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C422">
@@ -5925,7 +5925,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C423">
@@ -5938,7 +5938,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C424">
@@ -5990,7 +5990,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C428">
@@ -6003,7 +6003,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C429">
@@ -6086,7 +6086,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C435">
@@ -6112,7 +6112,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C437">
@@ -6138,7 +6138,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C439">
@@ -6177,7 +6177,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C442">
@@ -6190,7 +6190,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C443">
@@ -6268,7 +6268,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C449">
@@ -6307,7 +6307,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C452">
@@ -6320,7 +6320,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C453">
@@ -6333,7 +6333,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C454">
@@ -6372,7 +6372,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C457">
@@ -6385,7 +6385,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C458">
@@ -6398,7 +6398,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C459">
@@ -6437,7 +6437,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C462">
@@ -6463,7 +6463,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C464">
@@ -6489,7 +6489,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -6611,7 +6611,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C475">
@@ -6624,7 +6624,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C476">
@@ -7331,7 +7331,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C530">
@@ -7474,7 +7474,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C541">
@@ -7552,7 +7552,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C547">
@@ -7565,7 +7565,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C548">
@@ -7682,7 +7682,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C557">
@@ -7713,7 +7713,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C559">
@@ -7765,7 +7765,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C563">
@@ -7874,7 +7874,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C571">
@@ -7918,7 +7918,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C574">
@@ -8009,7 +8009,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C581">
@@ -8022,7 +8022,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C582">
@@ -8035,7 +8035,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C583">
@@ -8061,7 +8061,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C585">
@@ -8087,7 +8087,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C587">
@@ -8113,7 +8113,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Eloxochitlán de Flores Magón</t>
+          <t>Eloxochitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C589">
@@ -8126,7 +8126,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C590">
@@ -8152,7 +8152,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C592">
@@ -8165,7 +8165,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C593">
@@ -8178,7 +8178,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C594">
@@ -8191,7 +8191,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C595">
@@ -8204,7 +8204,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C596">
@@ -8217,7 +8217,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Huajuapan de León</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C597">
@@ -8243,7 +8243,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C599">
@@ -8295,7 +8295,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C603">
@@ -8321,7 +8321,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C605">
@@ -8347,7 +8347,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C607">
@@ -8399,7 +8399,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C611">
@@ -8412,7 +8412,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C612">
@@ -8425,7 +8425,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C613">
@@ -8438,7 +8438,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C614">
@@ -8464,7 +8464,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C616">
@@ -8477,7 +8477,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C617">
@@ -8542,7 +8542,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C622">
@@ -8659,7 +8659,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C631">
@@ -8789,7 +8789,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C641">
@@ -9660,7 +9660,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C708">
@@ -9673,7 +9673,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C709">
@@ -9881,7 +9881,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C725">
@@ -9894,7 +9894,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C726">
@@ -10115,7 +10115,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C743">
@@ -10141,7 +10141,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C745">
@@ -10154,7 +10154,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C746">
@@ -10167,7 +10167,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C747">
@@ -10856,7 +10856,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C800">
@@ -10934,7 +10934,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C806">
@@ -10947,7 +10947,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C807">
@@ -10960,7 +10960,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C808">
@@ -10973,7 +10973,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C809">
@@ -10986,7 +10986,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C810">
@@ -10999,7 +10999,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C811">
@@ -11012,7 +11012,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C812">
@@ -11025,7 +11025,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C813">
@@ -11038,7 +11038,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C814">
@@ -11103,7 +11103,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C819">
@@ -11116,7 +11116,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C820">
@@ -11129,7 +11129,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C821">
@@ -11142,7 +11142,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C822">
@@ -11155,7 +11155,7 @@
     <row r="823">
       <c r="B823" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C823">
@@ -11168,7 +11168,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C824">
@@ -11181,7 +11181,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C825">
@@ -11194,7 +11194,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Yutanduchi de Guerrero</t>
+          <t>Yutanduchi De Guerrero</t>
         </is>
       </c>
       <c r="C826">
@@ -11233,7 +11233,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C829">
@@ -11589,7 +11589,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C856">
@@ -11667,7 +11667,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C862">
@@ -11784,7 +11784,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C871">
@@ -11927,7 +11927,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C882">
@@ -11979,7 +11979,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C886">
@@ -11992,7 +11992,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C887">
@@ -12213,7 +12213,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C904">
@@ -12226,7 +12226,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C905">
@@ -12291,7 +12291,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C910">
@@ -12304,7 +12304,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C911">
@@ -12343,7 +12343,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C914">
@@ -12486,7 +12486,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C925">
@@ -12655,7 +12655,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C938">
@@ -12785,7 +12785,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C948">
@@ -12980,7 +12980,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C963">
@@ -13045,7 +13045,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C968">
@@ -13058,7 +13058,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C969">
@@ -13149,7 +13149,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C976">
@@ -13253,7 +13253,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C984">
@@ -13266,7 +13266,7 @@
     <row r="985">
       <c r="B985" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C985">
@@ -13279,7 +13279,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C986">
@@ -13357,7 +13357,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C992">
@@ -13383,7 +13383,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C994">
@@ -13396,7 +13396,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C995">
@@ -13461,7 +13461,7 @@
     <row r="1000">
       <c r="B1000" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1000">
@@ -13617,7 +13617,7 @@
     <row r="1012">
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C1012">
@@ -13643,7 +13643,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1014">
@@ -13695,7 +13695,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1018">
@@ -13786,7 +13786,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1025">
@@ -13973,7 +13973,7 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1039">
@@ -13999,7 +13999,7 @@
     <row r="1041">
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1041">
@@ -14051,7 +14051,7 @@
     <row r="1045">
       <c r="B1045" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1045">
@@ -14077,7 +14077,7 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1047">
@@ -14103,7 +14103,7 @@
     <row r="1049">
       <c r="B1049" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1049">
@@ -14230,7 +14230,7 @@
     <row r="1058">
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1058">
@@ -14308,7 +14308,7 @@
     <row r="1064">
       <c r="B1064" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1064">
@@ -14373,7 +14373,7 @@
     <row r="1069">
       <c r="B1069" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1069">
@@ -14438,7 +14438,7 @@
     <row r="1074">
       <c r="B1074" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1074">
@@ -14451,7 +14451,7 @@
     <row r="1075">
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1075">
@@ -14464,7 +14464,7 @@
     <row r="1076">
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1076">
@@ -14477,7 +14477,7 @@
     <row r="1077">
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1077">
@@ -14908,7 +14908,7 @@
     <row r="1109">
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1109">
@@ -15152,7 +15152,7 @@
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1127">
@@ -15165,7 +15165,7 @@
     <row r="1128">
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1128">
@@ -15178,7 +15178,7 @@
     <row r="1129">
       <c r="B1129" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1129">
@@ -15269,7 +15269,7 @@
     <row r="1136">
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1136">
@@ -15347,7 +15347,7 @@
     <row r="1142">
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1142">
@@ -15386,7 +15386,7 @@
     <row r="1145">
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1145">
@@ -15399,7 +15399,7 @@
     <row r="1146">
       <c r="B1146" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1146">
@@ -15438,7 +15438,7 @@
     <row r="1149">
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1149">
@@ -15503,7 +15503,7 @@
     <row r="1154">
       <c r="B1154" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1154">
@@ -15516,7 +15516,7 @@
     <row r="1155">
       <c r="B1155" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1155">
@@ -15620,7 +15620,7 @@
     <row r="1163">
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1163">
@@ -15659,7 +15659,7 @@
     <row r="1166">
       <c r="B1166" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1166">
@@ -15802,7 +15802,7 @@
     <row r="1177">
       <c r="B1177" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1177">
@@ -15828,7 +15828,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
@@ -15911,7 +15911,7 @@
     <row r="1185">
       <c r="B1185" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1185">
@@ -15963,7 +15963,7 @@
     <row r="1189">
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1189">
@@ -16067,7 +16067,7 @@
     <row r="1197">
       <c r="B1197" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1197">
@@ -16106,7 +16106,7 @@
     <row r="1200">
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1200">
@@ -16132,7 +16132,7 @@
     <row r="1202">
       <c r="B1202" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1202">
@@ -16301,7 +16301,7 @@
     <row r="1215">
       <c r="B1215" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1215">
@@ -16522,7 +16522,7 @@
     <row r="1232">
       <c r="B1232" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1232">
@@ -16535,7 +16535,7 @@
     <row r="1233">
       <c r="B1233" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1233">
@@ -16574,7 +16574,7 @@
     <row r="1236">
       <c r="B1236" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1236">
@@ -16743,7 +16743,7 @@
     <row r="1249">
       <c r="B1249" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1249">
@@ -16769,7 +16769,7 @@
     <row r="1251">
       <c r="B1251" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1251">
@@ -16821,7 +16821,7 @@
     <row r="1255">
       <c r="B1255" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1255">
@@ -16834,7 +16834,7 @@
     <row r="1256">
       <c r="B1256" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1256">
@@ -16938,7 +16938,7 @@
     <row r="1264">
       <c r="B1264" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1264">
@@ -16951,7 +16951,7 @@
     <row r="1265">
       <c r="B1265" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1265">
@@ -17003,7 +17003,7 @@
     <row r="1269">
       <c r="B1269" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1269">
@@ -17120,7 +17120,7 @@
     <row r="1278">
       <c r="B1278" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1278">
@@ -17159,7 +17159,7 @@
     <row r="1281">
       <c r="B1281" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1281">
@@ -17211,7 +17211,7 @@
     <row r="1285">
       <c r="B1285" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1285">
@@ -17536,7 +17536,7 @@
     <row r="1310">
       <c r="B1310" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1310">
@@ -17666,7 +17666,7 @@
     <row r="1320">
       <c r="B1320" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1320">
@@ -17679,7 +17679,7 @@
     <row r="1321">
       <c r="B1321" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1321">
@@ -17819,7 +17819,7 @@
     <row r="1331">
       <c r="B1331" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1331">
@@ -17910,7 +17910,7 @@
     <row r="1338">
       <c r="B1338" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1338">
@@ -18001,7 +18001,7 @@
     <row r="1345">
       <c r="A1345" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1345">
@@ -18009,41 +18009,6 @@
       </c>
       <c r="D1345">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1347">
-      <c r="A1347" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="1348">
-      <c r="A1348" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1349">
-      <c r="A1349" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1350">
-      <c r="A1350" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1351">
-      <c r="A1351" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>
